--- a/stats.xlsx
+++ b/stats.xlsx
@@ -444,34 +444,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>15</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>22</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>15</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>18</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>17</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>21</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>17</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>14</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -955,7 +955,7 @@
                   <c:v>59.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>16.3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2349,15 +2349,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>52386</xdr:rowOff>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>109536</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1314450</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2645,7 +2645,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2681,7 +2681,7 @@
         <v>59</v>
       </c>
       <c r="C3">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -2692,7 +2692,7 @@
         <v>59</v>
       </c>
       <c r="C4">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -2703,7 +2703,7 @@
         <v>65</v>
       </c>
       <c r="C5">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -2714,7 +2714,7 @@
         <v>63</v>
       </c>
       <c r="C6">
-        <v>22</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -2725,7 +2725,7 @@
         <v>58</v>
       </c>
       <c r="C7">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -2736,7 +2736,7 @@
         <v>63</v>
       </c>
       <c r="C8">
-        <v>18</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -2747,7 +2747,7 @@
         <v>55</v>
       </c>
       <c r="C9">
-        <v>17</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -2758,7 +2758,7 @@
         <v>59</v>
       </c>
       <c r="C10">
-        <v>21</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -2769,7 +2769,7 @@
         <v>55</v>
       </c>
       <c r="C11">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -2780,7 +2780,7 @@
         <v>60</v>
       </c>
       <c r="C12">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -2793,7 +2793,7 @@
       </c>
       <c r="C13">
         <f>AVERAGE(C3:C12)</f>
-        <v>16.3</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
